--- a/数据库/数据库.xlsx
+++ b/数据库/数据库.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,22 @@
   </si>
   <si>
     <t>reply_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigInt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="54146944"/>
-        <c:axId val="54148480"/>
+        <c:axId val="118970240"/>
+        <c:axId val="118971776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54146944"/>
+        <c:axId val="118970240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54148480"/>
+        <c:crossAx val="118971776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -710,7 +726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54148480"/>
+        <c:axId val="118971776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54146944"/>
+        <c:crossAx val="118970240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -780,15 +796,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -797,8 +813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5314950" y="904873"/>
-          <a:ext cx="5295900" cy="8791577"/>
+          <a:off x="5276850" y="666748"/>
+          <a:ext cx="5295900" cy="10506077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,6 +866,8 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>use pet;</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -926,6 +944,9 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>create table pet(</a:t>
@@ -935,6 +956,12 @@
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>pet_id bigint auto_increment not null primary key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_user_id bigint,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1097,6 +1124,26 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>create table comment(</a:t>
@@ -1180,6 +1227,9 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>create table</a:t>
@@ -1198,6 +1248,12 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>reply_user_id bigint not null ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>reply_comment_id bigint not null,</a:t>
           </a:r>
         </a:p>
@@ -1214,6 +1270,38 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>constraint fk_user_id1 foreign key(reply_user_id) references user(user_id) on delete cascade,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>constraint fk_comment_id foreign key(reply_comment_id) references comment(comment_id) on delete cascade</a:t>
@@ -1226,6 +1314,15 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
             <a:t>create table admin(</a:t>
@@ -1266,6 +1363,908 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="3047999"/>
+          <a:ext cx="7524750" cy="5067301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>insert into type(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>type_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>) values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>宠物猫</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>宠物狗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>宠物鸟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>insert into  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user_name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user_pwd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user_sex</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user_tel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>user_address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ) values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>小红</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>','123456','</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>女</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>','87373773','</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>广东省汕头市濠江区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>小黄</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>','123456','</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>男</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>','87373773','</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>福建省漳州市芗城区</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>insert into admin(admin_name,admin_pwd) values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>('admin','123456');</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>insert into </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pet(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pet_user_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pet_title</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pet_type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pet_introd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pet_pic1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>values(1,'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>纯种古牧狗，母狗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>岁，希望找个好人家领养，特别听话</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>',</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2,'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可爱的小母猫招聘铲屎官，小猫咪已绝育，特长卖萌，吃饭饭，求抱抱，真心想包养它就联系我，走国际领养程序，网红小猫抱回家！送养人联系方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QQ672906','1.jpg'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>insert into comment(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>comment_user_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>comment_pet_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>comment_content</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>values </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(1,1,'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>小狗好可爱</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>'),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1,1,'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>小狗好可爱</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2')</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>insert into </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reply</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reply_user_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reply_comment_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> ,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>reply_content</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(2,1,'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是啊我也觉得很可爱</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>'),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1,1,'</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我要加你</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>qq');</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1282,7 +2281,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1561,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:F53"/>
+  <dimension ref="A5:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1739,10 +2738,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1751,62 +2750,62 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1815,24 +2814,22 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -1843,7 +2840,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -1856,134 +2853,134 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>30</v>
@@ -1991,102 +2988,102 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2095,85 +3092,111 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F47" s="1"/>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1"/>
+      <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数据库/数据库.xlsx
+++ b/数据库/数据库.xlsx
@@ -705,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118970240"/>
-        <c:axId val="118971776"/>
+        <c:axId val="127485824"/>
+        <c:axId val="127487360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118970240"/>
+        <c:axId val="127485824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118971776"/>
+        <c:crossAx val="127487360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118971776"/>
+        <c:axId val="127487360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118970240"/>
+        <c:crossAx val="127485824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1987,19 +1987,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2')</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>;</a:t>
+            <a:t>2');</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2281,7 +2269,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2562,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/数据库/数据库.xlsx
+++ b/数据库/数据库.xlsx
@@ -705,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127485824"/>
-        <c:axId val="127487360"/>
+        <c:axId val="113469312"/>
+        <c:axId val="113470848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127485824"/>
+        <c:axId val="113469312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127487360"/>
+        <c:crossAx val="113470848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127487360"/>
+        <c:axId val="113470848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127485824"/>
+        <c:crossAx val="113469312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,16 +1370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1388,7 +1388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="3047999"/>
+          <a:off x="5219700" y="2905124"/>
           <a:ext cx="7524750" cy="5067301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2550,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/数据库/数据库.xlsx
+++ b/数据库/数据库.xlsx
@@ -705,11 +705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113469312"/>
-        <c:axId val="113470848"/>
+        <c:axId val="127485824"/>
+        <c:axId val="127487360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113469312"/>
+        <c:axId val="127485824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113470848"/>
+        <c:crossAx val="127487360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113470848"/>
+        <c:axId val="127487360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113469312"/>
+        <c:crossAx val="127485824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,16 +1370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1388,7 +1388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219700" y="2905124"/>
+          <a:off x="2771775" y="3047999"/>
           <a:ext cx="7524750" cy="5067301"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2550,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/数据库/数据库.xlsx
+++ b/数据库/数据库.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -365,74 +365,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -705,11 +637,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127485824"/>
-        <c:axId val="127487360"/>
+        <c:axId val="41897344"/>
+        <c:axId val="41899136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127485824"/>
+        <c:axId val="41897344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127487360"/>
+        <c:crossAx val="41899136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127487360"/>
+        <c:axId val="41899136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,7 +669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127485824"/>
+        <c:crossAx val="41897344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -795,581 +727,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5276850" y="666748"/>
-          <a:ext cx="5295900" cy="10506077"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>drop</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> database pet;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>create database pet;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>use pet;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>create table user(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>user_id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>  bigInt  auto_increment not null primary key,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>user_name varchar(20)  not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>user_pwd varchar(30) not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>user_sex varchar(2),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>user_tel varchar(30),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>user_address  varchar(150));</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>create table type(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>type_id bigInt  auto_increment not null primary key,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>type_name varchar(50) not null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>create table pet(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_id bigint auto_increment not null primary key,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_user_id bigint,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_title varchar(50) not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_type bigint not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_date datetime default now(),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_introd text ,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_state  boolean  default  false not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_check  boolean default false  not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>pet_pic1  varchar(50),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pet_pic2  varchar(50),</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>pet_pic3  varchar(50),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>constraint fk_type_id foreign key (pet_type) references  type (type_id)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>create table comment(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>comment</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>_id bigint </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>auto_increment  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>not null primary key,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>comment_user_id bigint not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>comment_pet_id bigint not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>comment_content nvarchar(300) not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>comment_date datetime default</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> now(),</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>constraint</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> fk_user_id foreign key (comment_user_id) references user(user_id),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>constraint fk_pet_id foreign key (comment_pet_id) references pet(pet_id)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>create table</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> reply(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>reply_id bigint auto_increment not null primary key,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>reply_user_id bigint not null ,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>reply_comment_id bigint not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>reply_content nvarchar(300) not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>reply_date datetime default now(),</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>constraint fk_user_id1 foreign key(reply_user_id) references user(user_id) on delete cascade,</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>constraint fk_comment_id foreign key(reply_comment_id) references comment(comment_id) on delete cascade</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>create table admin(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>admin_id bigint auto_increment not null primary key,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>admin_name varchar(20) not null,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>admin_pwd varchar(30) not null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t>);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -2258,6 +1615,596 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="1904998"/>
+          <a:ext cx="7934324" cy="10506077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>drop</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> database pet;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>create database pet;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>use pet;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>create table user(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>user_id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  bigInt  auto_increment not null primary key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>user_name varchar(20)  not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>user_pwd varchar(30) not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>user_sex varchar(2),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>user_tel varchar(30),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>user_address  varchar(150));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>create table type(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>type_id bigInt  auto_increment not null primary key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>type_name varchar(50) not null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>create table pet(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_id bigint auto_increment not null primary key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_user_id bigint,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_title varchar(50) not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_type bigint not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_date datetime default now(),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_introd text ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_state  boolean  default  false not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_check  boolean default false  not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>pet_pic1  varchar(50),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pet_pic2  varchar(50),</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pet_pic3  varchar(50),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>constraint fk_type_id foreign key (pet_type) references  type (type_id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>create table comment(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>comment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>_id bigint </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>auto_increment  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>not null primary key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>comment_user_id bigint not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>comment_pet_id bigint not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>comment_content nvarchar(300) not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>comment_date datetime default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> now(),</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>constraint</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> fk_user_id foreign key (comment_user_id) references user(user_id),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>constraint fk_pet_id foreign key (comment_pet_id) references pet(pet_id) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>on delete cascade</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>create table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> reply(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>reply_id bigint auto_increment not null primary key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>reply_user_id bigint not null ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>reply_comment_id bigint not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>reply_content nvarchar(300) not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>reply_date datetime default now(),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>constraint fk_user_id1 foreign key(reply_user_id) references user(user_id) on delete cascade,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>constraint fk_comment_id foreign key(reply_comment_id) references comment(comment_id) on delete cascade</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>create table admin(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>admin_id bigint auto_increment not null primary key,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>admin_name varchar(20) not null,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>admin_pwd varchar(30) not null</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2269,7 +2216,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2550,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
